--- a/admin/student/student.xlsx
+++ b/admin/student/student.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="hello" sheetId="1" r:id="rId4"/>
+    <sheet name="student" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -23,6 +23,9 @@
     <t>Họ tên</t>
   </si>
   <si>
+    <t>Ngành đăng ký</t>
+  </si>
+  <si>
     <t>Ngày sinh</t>
   </si>
   <si>
@@ -35,388 +38,385 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Nguyễn Văn Hưng</t>
+  </si>
+  <si>
+    <t>Quản Trị Kinh Doanh</t>
+  </si>
+  <si>
+    <t>2000-11-16</t>
+  </si>
+  <si>
+    <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>0902387633</t>
+  </si>
+  <si>
+    <t>hung2k@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>Công Nghệ Đa Phương Tiện</t>
+  </si>
+  <si>
+    <t>2001-05-25</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>0387177564</t>
+  </si>
+  <si>
+    <t>anh233@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Đức Trường</t>
+  </si>
+  <si>
+    <t>Truyền Thông Đa Phương Tiện</t>
+  </si>
+  <si>
+    <t>2001-01-28</t>
+  </si>
+  <si>
+    <t>Thái Nguyên</t>
+  </si>
+  <si>
+    <t>0393523322</t>
+  </si>
+  <si>
+    <t>truong8@gmail.com</t>
+  </si>
+  <si>
+    <t>Phùng Thị Ngọc</t>
+  </si>
+  <si>
+    <t>2001-03-09</t>
+  </si>
+  <si>
+    <t>0987627268</t>
+  </si>
+  <si>
+    <t>ngoc872@gmail.com</t>
+  </si>
+  <si>
+    <t>Tạ Lan Anh</t>
+  </si>
+  <si>
+    <t>Công Nghệ Thông Tin</t>
+  </si>
+  <si>
+    <t>2001-02-18</t>
+  </si>
+  <si>
+    <t>0939866231</t>
+  </si>
+  <si>
+    <t>taanh@gmail.com</t>
+  </si>
+  <si>
+    <t>Tạ Thị Nhung</t>
+  </si>
+  <si>
+    <t>Thiết Kế Đồ Hoạ</t>
+  </si>
+  <si>
+    <t>2001-05-12</t>
+  </si>
+  <si>
+    <t>09832232732</t>
+  </si>
+  <si>
+    <t>nhung8237@gmail.com</t>
+  </si>
+  <si>
+    <t>Bùi Đức Anh</t>
+  </si>
+  <si>
+    <t>2001-05-15</t>
+  </si>
+  <si>
+    <t>0397352333</t>
+  </si>
+  <si>
+    <t>anh73@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiều Bích Liên</t>
+  </si>
+  <si>
+    <t>2000-02-02</t>
+  </si>
+  <si>
+    <t>0393537363</t>
+  </si>
+  <si>
+    <t>lien817@gmail.com</t>
+  </si>
+  <si>
+    <t>Phương Ngọc</t>
+  </si>
+  <si>
+    <t>2001-12-04</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>0387736132</t>
+  </si>
+  <si>
+    <t>ngoc72@gmail.com</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Lan</t>
+  </si>
+  <si>
+    <t>2001-02-04</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>0902876153</t>
+  </si>
+  <si>
+    <t>lan82@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hùng</t>
+  </si>
+  <si>
+    <t>2001-02-01</t>
+  </si>
+  <si>
+    <t>0923122333</t>
+  </si>
+  <si>
+    <t>hung83@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Phúc</t>
+  </si>
+  <si>
+    <t>Kỹ Thuật Điện Tử Viễn Thông</t>
+  </si>
+  <si>
+    <t>2001-05-13</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>0328361233</t>
+  </si>
+  <si>
+    <t>puc823@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Chí Hiếu</t>
+  </si>
+  <si>
+    <t>2001-01-31</t>
+  </si>
+  <si>
+    <t>09231283112</t>
+  </si>
+  <si>
+    <t>dhgh@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê Hải Đăng</t>
+  </si>
+  <si>
+    <t>2000-02-03</t>
+  </si>
+  <si>
+    <t>0393537322</t>
+  </si>
+  <si>
+    <t>dang82@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Khoa</t>
+  </si>
+  <si>
+    <t>2001-06-03</t>
+  </si>
+  <si>
+    <t>0394379833</t>
+  </si>
+  <si>
+    <t>khoanh@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Hương Thảo</t>
+  </si>
+  <si>
+    <t>2001-09-12</t>
+  </si>
+  <si>
+    <t>0387173633</t>
+  </si>
+  <si>
+    <t>taho@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Đình Long</t>
+  </si>
+  <si>
+    <t>2001-03-03</t>
+  </si>
+  <si>
+    <t>0387173666</t>
+  </si>
+  <si>
+    <t>long27@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê Chí Đăng</t>
+  </si>
+  <si>
+    <t>2001-04-03</t>
+  </si>
+  <si>
+    <t>0926232222</t>
+  </si>
+  <si>
+    <t>ldang@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê Bá Dũng</t>
+  </si>
+  <si>
+    <t>2000-05-03</t>
+  </si>
+  <si>
+    <t>0926232732</t>
+  </si>
+  <si>
+    <t>ledung@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Thế Anh</t>
+  </si>
+  <si>
+    <t>0971096110</t>
+  </si>
+  <si>
+    <t>anh65@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Văn An</t>
+  </si>
+  <si>
+    <t>2000-04-02</t>
+  </si>
+  <si>
+    <t>0317173613</t>
+  </si>
+  <si>
+    <t>an76@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng An</t>
+  </si>
+  <si>
+    <t>2021-11-16</t>
+  </si>
+  <si>
+    <t>038713666</t>
+  </si>
+  <si>
+    <t>an2k@gmail.com</t>
+  </si>
+  <si>
+    <t>Vũ Nhật Hạ</t>
+  </si>
+  <si>
+    <t>2001-10-25</t>
+  </si>
+  <si>
+    <t>0387173613</t>
+  </si>
+  <si>
+    <t>havu02@gmail.com</t>
+  </si>
+  <si>
+    <t>Trương Thị Nguyệt</t>
+  </si>
+  <si>
+    <t>2000-11-14</t>
+  </si>
+  <si>
+    <t>039353732</t>
+  </si>
+  <si>
+    <t>nguyet17@gmail.com</t>
+  </si>
+  <si>
+    <t>Bùi Mai Hương</t>
+  </si>
+  <si>
+    <t>2001-08-09</t>
+  </si>
+  <si>
+    <t>0971022310</t>
+  </si>
+  <si>
+    <t>huong23@gmail.com</t>
+  </si>
+  <si>
+    <t>Đặng Thị Loan</t>
+  </si>
+  <si>
+    <t>2000-03-13</t>
+  </si>
+  <si>
+    <t>0923122311</t>
+  </si>
+  <si>
+    <t>loanh1@gmail.com</t>
+  </si>
+  <si>
+    <t>Vũ Thị Lanh</t>
+  </si>
+  <si>
+    <t>2001-11-26</t>
+  </si>
+  <si>
+    <t>0398318732</t>
+  </si>
+  <si>
+    <t>lah016@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê Thị Lan</t>
+  </si>
+  <si>
+    <t>2001-09-08</t>
+  </si>
+  <si>
+    <t>0394398732</t>
+  </si>
+  <si>
+    <t>lan12@gmail.com</t>
+  </si>
+  <si>
     <t>Nguyễn Long An</t>
   </si>
   <si>
     <t>2001-04-08</t>
   </si>
   <si>
-    <t>Hải Dương</t>
-  </si>
-  <si>
     <t>0971033310</t>
   </si>
   <si>
     <t>adk12@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Thị Lan</t>
-  </si>
-  <si>
-    <t>2001-09-08</t>
-  </si>
-  <si>
-    <t>Hà Nam</t>
-  </si>
-  <si>
-    <t>0394398732</t>
-  </si>
-  <si>
-    <t>lan12@gmail.com</t>
-  </si>
-  <si>
-    <t>Vũ Thị Lanh</t>
-  </si>
-  <si>
-    <t>2001-11-26</t>
-  </si>
-  <si>
-    <t>Thái Nguyên</t>
-  </si>
-  <si>
-    <t>0398318732</t>
-  </si>
-  <si>
-    <t>lah016@gmail.com</t>
-  </si>
-  <si>
-    <t>Đặng Thị Loan</t>
-  </si>
-  <si>
-    <t>2000-03-13</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>0923122311</t>
-  </si>
-  <si>
-    <t>loanh1@gmail.com</t>
-  </si>
-  <si>
-    <t>Bùi Mai Hương</t>
-  </si>
-  <si>
-    <t>2001-08-09</t>
-  </si>
-  <si>
-    <t>Thái Bình</t>
-  </si>
-  <si>
-    <t>0971022310</t>
-  </si>
-  <si>
-    <t>huong23@gmail.com</t>
-  </si>
-  <si>
-    <t>Trương Thị Nguyệt</t>
-  </si>
-  <si>
-    <t>2000-11-14</t>
-  </si>
-  <si>
-    <t>039353732</t>
-  </si>
-  <si>
-    <t>nguyet17@gmail.com</t>
-  </si>
-  <si>
-    <t>Vũ Nhật Hạ</t>
-  </si>
-  <si>
-    <t>2001-10-25</t>
-  </si>
-  <si>
-    <t>0387173613</t>
-  </si>
-  <si>
-    <t>havu02@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Đăng An</t>
-  </si>
-  <si>
-    <t>2021-11-16</t>
-  </si>
-  <si>
-    <t>038713666</t>
-  </si>
-  <si>
-    <t>an2k@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Văn An</t>
-  </si>
-  <si>
-    <t>2000-04-02</t>
-  </si>
-  <si>
-    <t>0317173613</t>
-  </si>
-  <si>
-    <t>an76@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Thế Anh</t>
-  </si>
-  <si>
-    <t>2001-04-03</t>
-  </si>
-  <si>
-    <t>0971096110</t>
-  </si>
-  <si>
-    <t>anh65@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Bá Dũng</t>
-  </si>
-  <si>
-    <t>2000-05-03</t>
-  </si>
-  <si>
-    <t>0926232732</t>
-  </si>
-  <si>
-    <t>ledung@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Chí Đăng</t>
-  </si>
-  <si>
-    <t>0926232222</t>
-  </si>
-  <si>
-    <t>ldang@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Đình Long</t>
-  </si>
-  <si>
-    <t>2001-03-03</t>
-  </si>
-  <si>
-    <t>0387173666</t>
-  </si>
-  <si>
-    <t>long27@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Hương Thảo</t>
-  </si>
-  <si>
-    <t>2001-09-12</t>
-  </si>
-  <si>
-    <t>0387173633</t>
-  </si>
-  <si>
-    <t>taho@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Đăng Khoa</t>
-  </si>
-  <si>
-    <t>2001-06-03</t>
-  </si>
-  <si>
-    <t>0394379833</t>
-  </si>
-  <si>
-    <t>khoanh@gmail.com</t>
-  </si>
-  <si>
-    <t>Lê Hải Đăng</t>
-  </si>
-  <si>
-    <t>2000-02-03</t>
-  </si>
-  <si>
-    <t>0393537322</t>
-  </si>
-  <si>
-    <t>dang82@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Chí Hiếu</t>
-  </si>
-  <si>
-    <t>2001-01-31</t>
-  </si>
-  <si>
-    <t>09231283112</t>
-  </si>
-  <si>
-    <t>dhgh@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Hồng Phúc</t>
-  </si>
-  <si>
-    <t>2001-05-13</t>
-  </si>
-  <si>
-    <t>0328361233</t>
-  </si>
-  <si>
-    <t>puc823@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Hùng</t>
-  </si>
-  <si>
-    <t>2001-02-01</t>
-  </si>
-  <si>
-    <t>0923122333</t>
-  </si>
-  <si>
-    <t>hung83@gmail.com</t>
-  </si>
-  <si>
-    <t>Vũ Ngọc Lan</t>
-  </si>
-  <si>
-    <t>2001-02-04</t>
-  </si>
-  <si>
-    <t>0902876153</t>
-  </si>
-  <si>
-    <t>lan82@gmail.com</t>
-  </si>
-  <si>
-    <t>Phương Ngọc</t>
-  </si>
-  <si>
-    <t>2001-12-04</t>
-  </si>
-  <si>
-    <t>Hải Phòng</t>
-  </si>
-  <si>
-    <t>0387736132</t>
-  </si>
-  <si>
-    <t>ngoc72@gmail.com</t>
-  </si>
-  <si>
-    <t>Kiều Bích Liên</t>
-  </si>
-  <si>
-    <t>2000-02-02</t>
-  </si>
-  <si>
-    <t>0393537363</t>
-  </si>
-  <si>
-    <t>lien817@gmail.com</t>
-  </si>
-  <si>
-    <t>Bùi Đức Anh</t>
-  </si>
-  <si>
-    <t>2001-05-15</t>
-  </si>
-  <si>
-    <t>0397352333</t>
-  </si>
-  <si>
-    <t>anh73@gmail.com</t>
-  </si>
-  <si>
-    <t>Tạ Thị Nhung</t>
-  </si>
-  <si>
-    <t>2001-05-12</t>
-  </si>
-  <si>
-    <t>09832232732</t>
-  </si>
-  <si>
-    <t>nhung8237@gmail.com</t>
-  </si>
-  <si>
-    <t>Tạ Lan Anh</t>
-  </si>
-  <si>
-    <t>2001-02-18</t>
-  </si>
-  <si>
-    <t>0939866231</t>
-  </si>
-  <si>
-    <t>taanh@gmail.com</t>
-  </si>
-  <si>
-    <t>Phùng Thị Ngọc</t>
-  </si>
-  <si>
-    <t>2001-03-09</t>
-  </si>
-  <si>
-    <t>0987627268</t>
-  </si>
-  <si>
-    <t>ngoc872@gmail.com</t>
-  </si>
-  <si>
-    <t>Phạm Đức Trường</t>
-  </si>
-  <si>
-    <t>2001-01-28</t>
-  </si>
-  <si>
-    <t>0393523322</t>
-  </si>
-  <si>
-    <t>truong8@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn An</t>
-  </si>
-  <si>
-    <t>2001-05-25</t>
-  </si>
-  <si>
-    <t>0387177564</t>
-  </si>
-  <si>
-    <t>anh233@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyễn Trường Giang</t>
-  </si>
-  <si>
-    <t>2001-07-09</t>
-  </si>
-  <si>
-    <t>0917287622</t>
-  </si>
-  <si>
-    <t>giang72@gmail.com</t>
-  </si>
-  <si>
-    <t>Kiều Thị Lan Anh</t>
-  </si>
-  <si>
-    <t>0972671231</t>
-  </si>
-  <si>
-    <t>anhlan@gmail.com</t>
-  </si>
-  <si>
-    <t>Vũ Tường Vân</t>
-  </si>
-  <si>
-    <t>2001-09-13</t>
-  </si>
-  <si>
-    <t>0987265362</t>
-  </si>
-  <si>
-    <t>vtv222@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,17 +770,20 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -788,19 +791,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -808,19 +814,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -828,19 +837,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -848,19 +860,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -868,19 +883,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -888,19 +906,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -908,19 +929,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -928,19 +952,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -948,19 +975,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -968,19 +998,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -988,19 +1021,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1008,19 +1044,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1028,19 +1067,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1048,19 +1090,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1068,19 +1113,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1088,19 +1136,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1108,19 +1159,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1128,19 +1182,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1148,19 +1205,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1168,19 +1228,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1188,19 +1251,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1208,19 +1274,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1228,19 +1297,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1248,19 +1320,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1268,19 +1343,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1288,19 +1366,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1308,19 +1389,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1328,19 +1412,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1348,58 +1435,21 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" t="s">
         <v>133</v>
       </c>
     </row>
